--- a/backend/media/update/dsfdsf.xlsx
+++ b/backend/media/update/dsfdsf.xlsx
@@ -10,7 +10,6 @@
     <sheet name="survey" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="settings" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="choices" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="appearance" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -416,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,76 +449,41 @@
           <t>appearance</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>begin_group</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>field-list</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>select_one 0ccG8na</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>_header</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>label1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>select_one 846PXWy</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>label1</t>
-        </is>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>list-nolabel</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>end_group</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>parameters</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>hint</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>default</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>guidance_hint</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>hxl</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>constraint_message</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>constraint</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -550,7 +514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,93 +539,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>0ccG8na</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>option_1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Option 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>0ccG8na</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>option_2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Option 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>846PXWy</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>option_1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Option 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>846PXWy</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>option_2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Option 2</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>